--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.13707495566744</v>
+        <v>7.582021999999999</v>
       </c>
       <c r="N2">
-        <v>4.13707495566744</v>
+        <v>22.746066</v>
       </c>
       <c r="O2">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="P2">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="Q2">
-        <v>22.36762000749243</v>
+        <v>115.1631779902193</v>
       </c>
       <c r="R2">
-        <v>22.36762000749243</v>
+        <v>1036.468601911974</v>
       </c>
       <c r="S2">
-        <v>0.003614665880607123</v>
+        <v>0.009162878876254795</v>
       </c>
       <c r="T2">
-        <v>0.003614665880607123</v>
+        <v>0.009162878876254794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.0105607061342</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N3">
-        <v>3.0105607061342</v>
+        <v>0.52837</v>
       </c>
       <c r="O3">
-        <v>0.4211967213470636</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="P3">
-        <v>0.4211967213470636</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="Q3">
-        <v>16.27697796290808</v>
+        <v>2.675133728825555</v>
       </c>
       <c r="R3">
-        <v>16.27697796290808</v>
+        <v>24.07620355943</v>
       </c>
       <c r="S3">
-        <v>0.002630402200243467</v>
+        <v>0.0002128451711978127</v>
       </c>
       <c r="T3">
-        <v>0.002630402200243467</v>
+        <v>0.0002128451711978126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.47101091744349</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>93.47101091744349</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.13707495566744</v>
+        <v>0.08017533333333333</v>
       </c>
       <c r="N4">
-        <v>4.13707495566744</v>
+        <v>0.240526</v>
       </c>
       <c r="O4">
-        <v>0.5788032786529365</v>
+        <v>0.007301415158788918</v>
       </c>
       <c r="P4">
-        <v>0.5788032786529365</v>
+        <v>0.007301415158788917</v>
       </c>
       <c r="Q4">
-        <v>386.6965783474734</v>
+        <v>1.217781507768222</v>
       </c>
       <c r="R4">
-        <v>386.6965783474734</v>
+        <v>10.960033569914</v>
       </c>
       <c r="S4">
-        <v>0.06249117820456181</v>
+        <v>9.689194626402919E-05</v>
       </c>
       <c r="T4">
-        <v>0.06249117820456181</v>
+        <v>9.689194626402915E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.47101091744349</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H5">
-        <v>93.47101091744349</v>
+        <v>45.566939</v>
       </c>
       <c r="I5">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J5">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.0105607061342</v>
+        <v>0.116695</v>
       </c>
       <c r="N5">
-        <v>3.0105607061342</v>
+        <v>0.350085</v>
       </c>
       <c r="O5">
-        <v>0.4211967213470636</v>
+        <v>0.01062719176248979</v>
       </c>
       <c r="P5">
-        <v>0.4211967213470636</v>
+        <v>0.01062719176248978</v>
       </c>
       <c r="Q5">
-        <v>281.4001526306962</v>
+        <v>1.772477982201667</v>
       </c>
       <c r="R5">
-        <v>281.4001526306962</v>
+        <v>15.952301839815</v>
       </c>
       <c r="S5">
-        <v>0.04547500047707786</v>
+        <v>0.0001410259889069899</v>
       </c>
       <c r="T5">
-        <v>0.04547500047707786</v>
+        <v>0.0001410259889069899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>196.805416198006</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H6">
-        <v>196.805416198006</v>
+        <v>45.566939</v>
       </c>
       <c r="I6">
-        <v>0.2273253335145328</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J6">
-        <v>0.2273253335145328</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.13707495566744</v>
+        <v>3.025778</v>
       </c>
       <c r="N6">
-        <v>4.13707495566744</v>
+        <v>9.077334</v>
       </c>
       <c r="O6">
-        <v>0.5788032786529365</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="P6">
-        <v>0.5788032786529365</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="Q6">
-        <v>814.1987584924777</v>
+        <v>45.95848051784733</v>
       </c>
       <c r="R6">
-        <v>814.1987584924777</v>
+        <v>413.626324660626</v>
       </c>
       <c r="S6">
-        <v>0.1315766483590838</v>
+        <v>0.003656654823797199</v>
       </c>
       <c r="T6">
-        <v>0.1315766483590838</v>
+        <v>0.003656654823797198</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>196.805416198006</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H7">
-        <v>196.805416198006</v>
+        <v>286.50943</v>
       </c>
       <c r="I7">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J7">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0105607061342</v>
+        <v>7.582021999999999</v>
       </c>
       <c r="N7">
-        <v>3.0105607061342</v>
+        <v>22.746066</v>
       </c>
       <c r="O7">
-        <v>0.4211967213470636</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="P7">
-        <v>0.4211967213470636</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="Q7">
-        <v>592.494652760104</v>
+        <v>724.1069338224867</v>
       </c>
       <c r="R7">
-        <v>592.494652760104</v>
+        <v>6516.96240440238</v>
       </c>
       <c r="S7">
-        <v>0.09574868515544896</v>
+        <v>0.05761306907174085</v>
       </c>
       <c r="T7">
-        <v>0.09574868515544896</v>
+        <v>0.05761306907174084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.07592746158</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H8">
-        <v>168.07592746158</v>
+        <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.1941405729785764</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J8">
-        <v>0.1941405729785764</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.13707495566744</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N8">
-        <v>4.13707495566744</v>
+        <v>0.52837</v>
       </c>
       <c r="O8">
-        <v>0.5788032786529365</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="P8">
-        <v>0.5788032786529365</v>
+        <v>0.01603921708027116</v>
       </c>
       <c r="Q8">
-        <v>695.3427101518799</v>
+        <v>16.82033194767778</v>
       </c>
       <c r="R8">
-        <v>695.3427101518799</v>
+        <v>151.3829875291</v>
       </c>
       <c r="S8">
-        <v>0.1123692001595597</v>
+        <v>0.001338298117372723</v>
       </c>
       <c r="T8">
-        <v>0.1123692001595597</v>
+        <v>0.001338298117372723</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.07592746158</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H9">
-        <v>168.07592746158</v>
+        <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.1941405729785764</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J9">
-        <v>0.1941405729785764</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.0105607061342</v>
+        <v>0.08017533333333333</v>
       </c>
       <c r="N9">
-        <v>3.0105607061342</v>
+        <v>0.240526</v>
       </c>
       <c r="O9">
-        <v>0.4211967213470636</v>
+        <v>0.007301415158788918</v>
       </c>
       <c r="P9">
-        <v>0.4211967213470636</v>
+        <v>0.007301415158788917</v>
       </c>
       <c r="Q9">
-        <v>506.0027828628948</v>
+        <v>7.656996351131112</v>
       </c>
       <c r="R9">
-        <v>506.0027828628948</v>
+        <v>68.91296716018</v>
       </c>
       <c r="S9">
-        <v>0.08177137281901672</v>
+        <v>0.0006092236368060104</v>
       </c>
       <c r="T9">
-        <v>0.08177137281901672</v>
+        <v>0.0006092236368060103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>365.972334762252</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H10">
-        <v>365.972334762252</v>
+        <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.4227260848005264</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J10">
-        <v>0.4227260848005264</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.13707495566744</v>
+        <v>0.116695</v>
       </c>
       <c r="N10">
-        <v>4.13707495566744</v>
+        <v>0.350085</v>
       </c>
       <c r="O10">
-        <v>0.5788032786529365</v>
+        <v>0.01062719176248979</v>
       </c>
       <c r="P10">
-        <v>0.5788032786529365</v>
+        <v>0.01062719176248978</v>
       </c>
       <c r="Q10">
-        <v>1514.054980612053</v>
+        <v>11.14473931128333</v>
       </c>
       <c r="R10">
-        <v>1514.054980612053</v>
+        <v>100.30265380155</v>
       </c>
       <c r="S10">
-        <v>0.2446752438546639</v>
+        <v>0.0008867235013729582</v>
       </c>
       <c r="T10">
-        <v>0.2446752438546639</v>
+        <v>0.0008867235013729579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>365.972334762252</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H11">
-        <v>365.972334762252</v>
+        <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.4227260848005264</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J11">
-        <v>0.4227260848005264</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.0105607061342</v>
+        <v>3.025778</v>
       </c>
       <c r="N11">
-        <v>3.0105607061342</v>
+        <v>9.077334</v>
       </c>
       <c r="O11">
-        <v>0.4211967213470636</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="P11">
-        <v>0.4211967213470636</v>
+        <v>0.2755518491514017</v>
       </c>
       <c r="Q11">
-        <v>1101.781930567427</v>
+        <v>288.9713100288467</v>
       </c>
       <c r="R11">
-        <v>1101.781930567427</v>
+        <v>2600.74179025962</v>
       </c>
       <c r="S11">
-        <v>0.1780508409458625</v>
+        <v>0.02299180309813846</v>
       </c>
       <c r="T11">
-        <v>0.1780508409458625</v>
+        <v>0.02299180309813845</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.012123771195</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H12">
-        <v>36.012123771195</v>
+        <v>1206.273934</v>
       </c>
       <c r="I12">
-        <v>0.04159676194387419</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J12">
-        <v>0.04159676194387419</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.13707495566744</v>
+        <v>7.582021999999999</v>
       </c>
       <c r="N12">
-        <v>4.13707495566744</v>
+        <v>22.746066</v>
       </c>
       <c r="O12">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="P12">
-        <v>0.5788032786529365</v>
+        <v>0.6904803268470485</v>
       </c>
       <c r="Q12">
-        <v>148.9848553542069</v>
+        <v>3048.665168538182</v>
       </c>
       <c r="R12">
-        <v>148.9848553542069</v>
+        <v>27437.98651684364</v>
       </c>
       <c r="S12">
-        <v>0.02407634219446008</v>
+        <v>0.2425649427280022</v>
       </c>
       <c r="T12">
-        <v>0.02407634219446008</v>
+        <v>0.2425649427280021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>402.0913113333333</v>
+      </c>
+      <c r="H13">
+        <v>1206.273934</v>
+      </c>
+      <c r="I13">
+        <v>0.3512988470441011</v>
+      </c>
+      <c r="J13">
+        <v>0.351298847044101</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.52837</v>
+      </c>
+      <c r="O13">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P13">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q13">
+        <v>70.81766205639777</v>
+      </c>
+      <c r="R13">
+        <v>637.3589585075799</v>
+      </c>
+      <c r="S13">
+        <v>0.00563455846778931</v>
+      </c>
+      <c r="T13">
+        <v>0.005634558467789309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>402.0913113333333</v>
+      </c>
+      <c r="H14">
+        <v>1206.273934</v>
+      </c>
+      <c r="I14">
+        <v>0.3512988470441011</v>
+      </c>
+      <c r="J14">
+        <v>0.351298847044101</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.240526</v>
+      </c>
+      <c r="O14">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P14">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q14">
+        <v>32.23780491658711</v>
+      </c>
+      <c r="R14">
+        <v>290.140244249284</v>
+      </c>
+      <c r="S14">
+        <v>0.002564978727072869</v>
+      </c>
+      <c r="T14">
+        <v>0.002564978727072868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>402.0913113333333</v>
+      </c>
+      <c r="H15">
+        <v>1206.273934</v>
+      </c>
+      <c r="I15">
+        <v>0.3512988470441011</v>
+      </c>
+      <c r="J15">
+        <v>0.351298847044101</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.116695</v>
+      </c>
+      <c r="N15">
+        <v>0.350085</v>
+      </c>
+      <c r="O15">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P15">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q15">
+        <v>46.92204557604332</v>
+      </c>
+      <c r="R15">
+        <v>422.2984101843899</v>
+      </c>
+      <c r="S15">
+        <v>0.00373332021347923</v>
+      </c>
+      <c r="T15">
+        <v>0.003733320213479229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>402.0913113333333</v>
+      </c>
+      <c r="H16">
+        <v>1206.273934</v>
+      </c>
+      <c r="I16">
+        <v>0.3512988470441011</v>
+      </c>
+      <c r="J16">
+        <v>0.351298847044101</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.025778</v>
+      </c>
+      <c r="N16">
+        <v>9.077334</v>
+      </c>
+      <c r="O16">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P16">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q16">
+        <v>1216.639043823551</v>
+      </c>
+      <c r="R16">
+        <v>10949.75139441195</v>
+      </c>
+      <c r="S16">
+        <v>0.0968010469077575</v>
+      </c>
+      <c r="T16">
+        <v>0.09680104690775744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>192.2123056666667</v>
+      </c>
+      <c r="H17">
+        <v>576.636917</v>
+      </c>
+      <c r="I17">
+        <v>0.1679319086614409</v>
+      </c>
+      <c r="J17">
+        <v>0.1679319086614409</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N17">
+        <v>22.746066</v>
+      </c>
+      <c r="O17">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P17">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q17">
+        <v>1457.357930235391</v>
+      </c>
+      <c r="R17">
+        <v>13116.22137211852</v>
+      </c>
+      <c r="S17">
+        <v>0.1159536791806004</v>
+      </c>
+      <c r="T17">
+        <v>0.1159536791806004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>192.2123056666667</v>
+      </c>
+      <c r="H18">
+        <v>576.636917</v>
+      </c>
+      <c r="I18">
+        <v>0.1679319086614409</v>
+      </c>
+      <c r="J18">
+        <v>0.1679319086614409</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.52837</v>
+      </c>
+      <c r="O18">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P18">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q18">
+        <v>33.85307198169889</v>
+      </c>
+      <c r="R18">
+        <v>304.67764783529</v>
+      </c>
+      <c r="S18">
+        <v>0.002693496337725119</v>
+      </c>
+      <c r="T18">
+        <v>0.002693496337725119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>192.2123056666667</v>
+      </c>
+      <c r="H19">
+        <v>576.636917</v>
+      </c>
+      <c r="I19">
+        <v>0.1679319086614409</v>
+      </c>
+      <c r="J19">
+        <v>0.1679319086614409</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.240526</v>
+      </c>
+      <c r="O19">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P19">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q19">
+        <v>15.41068567759356</v>
+      </c>
+      <c r="R19">
+        <v>138.696171098342</v>
+      </c>
+      <c r="S19">
+        <v>0.001226140583545001</v>
+      </c>
+      <c r="T19">
+        <v>0.001226140583545001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>192.2123056666667</v>
+      </c>
+      <c r="H20">
+        <v>576.636917</v>
+      </c>
+      <c r="I20">
+        <v>0.1679319086614409</v>
+      </c>
+      <c r="J20">
+        <v>0.1679319086614409</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.116695</v>
+      </c>
+      <c r="N20">
+        <v>0.350085</v>
+      </c>
+      <c r="O20">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P20">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q20">
+        <v>22.43021500977167</v>
+      </c>
+      <c r="R20">
+        <v>201.871935087945</v>
+      </c>
+      <c r="S20">
+        <v>0.001784644596386052</v>
+      </c>
+      <c r="T20">
+        <v>0.001784644596386052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>36.012123771195</v>
-      </c>
-      <c r="H13">
-        <v>36.012123771195</v>
-      </c>
-      <c r="I13">
-        <v>0.04159676194387419</v>
-      </c>
-      <c r="J13">
-        <v>0.04159676194387419</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.0105607061342</v>
-      </c>
-      <c r="N13">
-        <v>3.0105607061342</v>
-      </c>
-      <c r="O13">
-        <v>0.4211967213470636</v>
-      </c>
-      <c r="P13">
-        <v>0.4211967213470636</v>
-      </c>
-      <c r="Q13">
-        <v>108.416684770001</v>
-      </c>
-      <c r="R13">
-        <v>108.416684770001</v>
-      </c>
-      <c r="S13">
-        <v>0.01752041974941412</v>
-      </c>
-      <c r="T13">
-        <v>0.01752041974941412</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>192.2123056666667</v>
+      </c>
+      <c r="H21">
+        <v>576.636917</v>
+      </c>
+      <c r="I21">
+        <v>0.1679319086614409</v>
+      </c>
+      <c r="J21">
+        <v>0.1679319086614409</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.025778</v>
+      </c>
+      <c r="N21">
+        <v>9.077334</v>
+      </c>
+      <c r="O21">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P21">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q21">
+        <v>581.5917658154755</v>
+      </c>
+      <c r="R21">
+        <v>5234.325892339279</v>
+      </c>
+      <c r="S21">
+        <v>0.04627394796318434</v>
+      </c>
+      <c r="T21">
+        <v>0.04627394796318433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>402.444082</v>
+      </c>
+      <c r="H22">
+        <v>1207.332246</v>
+      </c>
+      <c r="I22">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="J22">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N22">
+        <v>22.746066</v>
+      </c>
+      <c r="O22">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P22">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q22">
+        <v>3051.339883493803</v>
+      </c>
+      <c r="R22">
+        <v>27462.05895144423</v>
+      </c>
+      <c r="S22">
+        <v>0.2427777545797987</v>
+      </c>
+      <c r="T22">
+        <v>0.2427777545797986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>402.444082</v>
+      </c>
+      <c r="H23">
+        <v>1207.332246</v>
+      </c>
+      <c r="I23">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="J23">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.52837</v>
+      </c>
+      <c r="O23">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P23">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q23">
+        <v>70.87979320211333</v>
+      </c>
+      <c r="R23">
+        <v>637.91813881902</v>
+      </c>
+      <c r="S23">
+        <v>0.005639501889571947</v>
+      </c>
+      <c r="T23">
+        <v>0.005639501889571946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>402.444082</v>
+      </c>
+      <c r="H24">
+        <v>1207.332246</v>
+      </c>
+      <c r="I24">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="J24">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.240526</v>
+      </c>
+      <c r="O24">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P24">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q24">
+        <v>32.26608842237733</v>
+      </c>
+      <c r="R24">
+        <v>290.394795801396</v>
+      </c>
+      <c r="S24">
+        <v>0.002567229084715602</v>
+      </c>
+      <c r="T24">
+        <v>0.002567229084715601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>402.444082</v>
+      </c>
+      <c r="H25">
+        <v>1207.332246</v>
+      </c>
+      <c r="I25">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="J25">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.116695</v>
+      </c>
+      <c r="N25">
+        <v>0.350085</v>
+      </c>
+      <c r="O25">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P25">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q25">
+        <v>46.96321214899</v>
+      </c>
+      <c r="R25">
+        <v>422.66890934091</v>
+      </c>
+      <c r="S25">
+        <v>0.003736595603480128</v>
+      </c>
+      <c r="T25">
+        <v>0.003736595603480127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>402.444082</v>
+      </c>
+      <c r="H26">
+        <v>1207.332246</v>
+      </c>
+      <c r="I26">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="J26">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.025778</v>
+      </c>
+      <c r="N26">
+        <v>9.077334</v>
+      </c>
+      <c r="O26">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P26">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q26">
+        <v>1217.706449545796</v>
+      </c>
+      <c r="R26">
+        <v>10959.35804591216</v>
+      </c>
+      <c r="S26">
+        <v>0.09688597430829854</v>
+      </c>
+      <c r="T26">
+        <v>0.0968859743082985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H27">
+        <v>111.434855</v>
+      </c>
+      <c r="I27">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J27">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.582021999999999</v>
+      </c>
+      <c r="N27">
+        <v>22.746066</v>
+      </c>
+      <c r="O27">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="P27">
+        <v>0.6904803268470485</v>
+      </c>
+      <c r="Q27">
+        <v>281.6338407256033</v>
+      </c>
+      <c r="R27">
+        <v>2534.70456653043</v>
+      </c>
+      <c r="S27">
+        <v>0.02240800241065163</v>
+      </c>
+      <c r="T27">
+        <v>0.02240800241065163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H28">
+        <v>111.434855</v>
+      </c>
+      <c r="I28">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J28">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.52837</v>
+      </c>
+      <c r="O28">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="P28">
+        <v>0.01603921708027116</v>
+      </c>
+      <c r="Q28">
+        <v>6.542092704038888</v>
+      </c>
+      <c r="R28">
+        <v>58.87883433635</v>
+      </c>
+      <c r="S28">
+        <v>0.0005205170966142454</v>
+      </c>
+      <c r="T28">
+        <v>0.0005205170966142453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H29">
+        <v>111.434855</v>
+      </c>
+      <c r="I29">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J29">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.08017533333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.240526</v>
+      </c>
+      <c r="O29">
+        <v>0.007301415158788918</v>
+      </c>
+      <c r="P29">
+        <v>0.007301415158788917</v>
+      </c>
+      <c r="Q29">
+        <v>2.978108881525555</v>
+      </c>
+      <c r="R29">
+        <v>26.80297993373</v>
+      </c>
+      <c r="S29">
+        <v>0.000236951180385408</v>
+      </c>
+      <c r="T29">
+        <v>0.0002369511803854079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H30">
+        <v>111.434855</v>
+      </c>
+      <c r="I30">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J30">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.116695</v>
+      </c>
+      <c r="N30">
+        <v>0.350085</v>
+      </c>
+      <c r="O30">
+        <v>0.01062719176248979</v>
+      </c>
+      <c r="P30">
+        <v>0.01062719176248978</v>
+      </c>
+      <c r="Q30">
+        <v>4.334630134741666</v>
+      </c>
+      <c r="R30">
+        <v>39.011671212675</v>
+      </c>
+      <c r="S30">
+        <v>0.0003448818588644286</v>
+      </c>
+      <c r="T30">
+        <v>0.0003448818588644285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H31">
+        <v>111.434855</v>
+      </c>
+      <c r="I31">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J31">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.025778</v>
+      </c>
+      <c r="N31">
+        <v>9.077334</v>
+      </c>
+      <c r="O31">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="P31">
+        <v>0.2755518491514017</v>
+      </c>
+      <c r="Q31">
+        <v>112.3923775640633</v>
+      </c>
+      <c r="R31">
+        <v>1011.53139807657</v>
+      </c>
+      <c r="S31">
+        <v>0.008942422050225746</v>
+      </c>
+      <c r="T31">
+        <v>0.00894242205022574</v>
       </c>
     </row>
   </sheetData>
